--- a/what/olahraga/df_result_lda_evaluated.xlsx
+++ b/what/olahraga/df_result_lda_evaluated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\what\olahraga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DAF79-F44B-4CC8-88A1-1E25C36E7D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C7FC2-25EC-44C7-B5A7-F935B3906033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4076,158 +4076,158 @@
  </t>
   </si>
   <si>
-    <t>['pertandingan', 'bola', 'sepakbola', 'memiliki', 'dunia']</t>
-  </si>
-  <si>
-    <t>['negara', 'pertandingan', 'sepakbola', 'portugal', 'kali', 'memiliki', 'sepak_bola', 'klub', 'liga']</t>
-  </si>
-  <si>
-    <t>['bola', 'juku_eja', 'kali', 'indonesia', 'sepak_bola', 'klub', 'psm_makassar', 'psm', 'liga']</t>
-  </si>
-  <si>
-    <t>['indonesia', 'turnamen', 'dunia', 'kompetisi']</t>
-  </si>
-  <si>
-    <t>['lapangan', 'kali', 'melawan', 'sepak_bola']</t>
-  </si>
-  <si>
-    <t>['babak', 'kotak_penalti', 'gawang', 'melepaskan_tembakan', 'pertandingan', 'portugal', 'laga', 'menit']</t>
-  </si>
-  <si>
-    <t>['nasional', 'atlet', 'nama', 'basket', 'kali', 'indonesia', 'olahraga', 'memiliki', 'lini', 'klub', 'dunia', 'bagus']</t>
-  </si>
-  <si>
-    <t>['pertandingan', 'indonesia', 'dunia']</t>
-  </si>
-  <si>
-    <t>['melebar', 'kiper', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'serangan', 'sepakan', 'peluang', 'umpan_silang', 'laga', 'menit', 'gol']</t>
-  </si>
-  <si>
-    <t>['langsung', 'turnamen']</t>
-  </si>
-  <si>
-    <t>['kompetisi', 'musim', 'bola', 'psm', 'bernardo_tavares', 'pemain', 'berhasil', 'juku_eja', 'lini', 'lawan', 'liga', 'psm_makassar', 'pelatih', 'tim']</t>
-  </si>
-  <si>
-    <t>['bermain', 'skor', 'musim', 'pertandingan', 'langsung', 'nama', 'pemain', 'berhasil', 'portugal', 'timnas', 'kali', 'maroko', 'hasil', 'prancis', 'sepak_bola', 'stadion', 'terkait', 'piala_dunia', 'klub', 'lawan', 'dunia', 'qatar', 'laga', 'pelatih', 'menit', 'tim', 'ketiga', 'tembakan']</t>
-  </si>
-  <si>
-    <t>['poin', 'inggris', 'kiper', 'umpan', 'babak', 'kotak_penalti', 'gawang', 'gol', 'melepaskan_tembakan', 'pertandingan', 'serangan', 'langsung', 'bola', 'sepak_pojok', 'berhasil', 'kali', 'sepakan', 'hasil', 'peluang', 'menit', 'tim', 'tembakan', 'kalah']</t>
-  </si>
-  <si>
-    <t>['poin', 'skor', 'borneo', 'pertandingan', 'menang', 'madura_united', 'psm', 'pemain', 'kalah', 'kemenangan', 'memiliki', 'sepak_bola', 'lawan', 'psm_makassar', 'laga', 'pelatih', 'tim', 'hasil', 'liga']</t>
-  </si>
-  <si>
-    <t>['nasional', 'pertandingan', 'langsung', 'nama', 'melawan', 'memiliki', 'hasil', 'sepak_bola', 'stadion', 'terkait', 'klub', 'lawan', 'liga', 'laga', 'tim']</t>
-  </si>
-  <si>
-    <t>['poin', 'gol', 'pertandingan', 'serangan', 'madura_united', 'psm', 'pemain', 'berhasil', 'juku_eja', 'kalah', 'memiliki', 'lini', 'lawan', 'liga', 'psm_makassar', 'laga', 'menit']</t>
-  </si>
-  <si>
-    <t>['poin', 'bermain', 'borneo', 'unggul', 'madura_united', 'psm', 'bernardo_tavares', 'pemain', 'berhasil', 'juku_eja', 'melawan', 'hasil', 'lini', 'liga', 'psm_makassar', 'laga', 'pelatih', 'menit', 'tim']</t>
-  </si>
-  <si>
-    <t>['kiper', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'melepaskan_tembakan', 'serangan', 'menang', 'bola', 'kemenangan', 'sepakan', 'maroko', 'hasil', 'peluang', 'kerja', 'dunia', 'laga', 'menit', 'tendangan']</t>
-  </si>
-  <si>
-    <t>['poin', 'kiper', 'umpan', 'bermain', 'babak', 'kotak_penalti', 'skor', 'borneo', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'langsung', 'lapangan', 'bola', 'madura_united', 'psm', 'sepak_pojok', 'pemain', 'berhasil', 'juku_eja', 'kali', 'kemenangan', 'wasit', 'hasil', 'peluang', 'lini', 'lawan', 'psm_makassar', 'laga', 'menit', 'tim', 'ketiga', 'tendangan', 'gawang']</t>
-  </si>
-  <si>
-    <t>['poin', 'kiper', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'pertandingan', 'serangan', 'bola', 'peluang', 'stadion', 'lawan', 'liga', 'laga', 'menit', 'tim', 'tembakan', 'hasil']</t>
-  </si>
-  <si>
-    <t>['inggris', 'kompetisi', 'nasional', 'kiper', 'negara', 'bermain', 'nama', 'berhasil', 'portugal', 'kali', 'indonesia', 'memiliki', 'maroko', 'prancis', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'tim', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['inggris', 'babak', 'kotak_penalti', 'gawang', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'langsung', 'bola', 'sepak_pojok', 'pemain', 'portugal', 'kali', 'wasit', 'maroko', 'peluang', 'prancis', 'umpan_silang', 'dunia', 'laga', 'menit', 'tendangan', 'tembakan', 'menang', 'hasil']</t>
-  </si>
-  <si>
-    <t>['babak', 'kotak_penalti', 'gawang', 'bernardo', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'menang', 'sepak_pojok', 'pemain', 'portugal', 'melawan', 'kemenangan', 'wasit', 'piala_dunia', 'laga', 'menit', 'tendangan']</t>
-  </si>
-  <si>
-    <t>['poin', 'babak', 'menghadapi', 'gol', 'unggul', 'lapangan', 'sepakbola', 'pemain', 'kali', 'melawan', 'memiliki', 'sepak_bola', 'piala_dunia', 'lawan', 'dunia', 'qatar', 'laga', 'bagus']</t>
-  </si>
-  <si>
-    <t>['inggris', 'negara', 'bermain', 'babak', 'messi', 'gol', 'pertandingan', 'menang', 'argentina', 'pemain', 'kali', 'kalah', 'kemenangan', 'lionel_messi', 'memiliki', 'final', 'maroko', 'prancis', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'laga', 'pelatih', 'menit', 'tim', 'ketiga']</t>
-  </si>
-  <si>
-    <t>['poin', 'bermain', 'kotak_penalti', 'bernardo', 'musim', 'psm', 'aturan', 'wasit', 'lawan', 'liga', 'psm_makassar', 'laga', 'tim', 'bagus', 'pelatih']</t>
-  </si>
-  <si>
-    <t>['bermain', 'bernardo', 'borneo', 'pertandingan', 'bola', 'nama', 'psm', 'bernardo_tavares', 'aturan', 'pemain', 'juku_eja', 'kali', 'sepak_bola', 'liga', 'psm_makassar', 'pelatih', 'tim', 'lawan']</t>
-  </si>
-  <si>
-    <t>['nasional', 'atlet', 'pertandingan', 'langsung', 'klub', 'laga', 'bagus']</t>
-  </si>
-  <si>
-    <t>['kompetisi', 'bermain', 'musim', 'atlet', 'pertandingan', 'langsung', 'lapangan', 'madura_united', 'psm', 'bernardo_tavares', 'pemain', 'sepak_bola', 'stadion', 'liga', 'psm_makassar', 'laga', 'tim', 'bernardo']</t>
-  </si>
-  <si>
-    <t>['bermain', 'menghadapi', 'bernardo', 'gol', 'pertandingan', 'bola', 'madura_united', 'psm', 'pemain', 'juku_eja', 'peluang', 'lini', 'kerja', 'liga', 'psm_makassar', 'laga', 'pelatih', 'tim', 'bagus', 'skor']</t>
-  </si>
-  <si>
-    <t>['poin', 'bermain', 'bernardo', 'borneo', 'psm', 'bernardo_tavares', 'pemain', 'kemenangan', 'peluang', 'sepak_bola', 'liga', 'psm_makassar', 'laga', 'tim', 'bagus']</t>
-  </si>
-  <si>
-    <t>['poin', 'melebar', 'umpan', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'bola', 'sepak_pojok', 'pemain', 'kemenangan', 'sepakan', 'hasil', 'peluang', 'stadion', 'kerja', 'laga', 'menit', 'ketiga', 'bagus']</t>
-  </si>
-  <si>
-    <t>['kompetisi', 'bernardo', 'pertandingan', 'bola', 'bernardo_tavares', 'indonesia', 'sepak_bola', 'liga', 'psm_makassar', 'pelatih', 'tim', 'bagus', 'psm']</t>
-  </si>
-  <si>
-    <t>['bermain', 'babak', 'pertandingan', 'nama', 'pemain', 'olahraga', 'prancis', 'sepak_bola', 'piala_dunia', 'tim']</t>
-  </si>
-  <si>
-    <t>['poin', 'babak', 'gol', 'pertandingan', 'serangan', 'madura_united', 'psm', 'pemain', 'kali', 'kalah', 'psm_makassar', 'laga', 'menit', 'tim']</t>
-  </si>
-  <si>
-    <t>['umpan', 'bermain', 'babak', 'kotak_penalti', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'pertandingan', 'serangan', 'langsung', 'bola', 'psm', 'bernardo_tavares', 'pemain', 'lini', 'psm_makassar', 'laga', 'menit', 'tim', 'tembakan']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'musim', 'pertandingan', 'berhasil', 'kalah', 'stadion', 'klub', 'laga']</t>
-  </si>
-  <si>
-    <t>['kiper', 'babak', 'gol', 'pertandingan', 'serangan', 'lapangan', 'sepak_pojok', 'wasit', 'kerja', 'piala_dunia', 'lawan', 'laga', 'menit', 'tim']</t>
-  </si>
-  <si>
-    <t>['poin', 'melebar', 'kiper', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'lapangan', 'bola', 'sepak_pojok', 'pemain', 'berhasil', 'kali', 'sepakan', 'kerja', 'piala_dunia', 'umpan_silang', 'dunia', 'qatar', 'laga', 'menit', 'tim', 'ketiga', 'tembakan', 'hasil']</t>
-  </si>
-  <si>
-    <t>['inggris', 'atlet', 'pertandingan', 'langsung', 'bola', 'sepakbola', 'pemain', 'berhasil', 'memiliki', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'tim', 'timnas']</t>
-  </si>
-  <si>
-    <t>['poin', 'kompetisi', 'bermain', 'skor', 'borneo', 'gol', 'unggul', 'psm', 'pemain', 'berhasil', 'kali', 'kalah', 'melawan', 'psm_makassar', 'laga', 'pelatih', 'tim', 'bagus', 'menang', 'liga']</t>
-  </si>
-  <si>
-    <t>['jakarta', 'berhasil', 'kali', 'olahraga', 'memiliki', 'sepak_bola', 'stadion', 'kerja', 'terkait']</t>
-  </si>
-  <si>
-    <t>['babak', 'menghadapi', 'atlet', 'pertandingan', 'lapangan', 'pemain', 'indonesia', 'turnamen', 'final']</t>
-  </si>
-  <si>
-    <t>['umpan', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'pertandingan', 'serangan', 'langsung', 'bola', 'sepak_pojok', 'pemain', 'kali', 'wasit', 'peluang', 'laga', 'menit', 'tim', 'tendangan']</t>
-  </si>
-  <si>
-    <t>['nasional', 'bermain', 'pertandingan', 'langsung', 'sepakbola', 'nama', 'argentina', 'pemain', 'lionel_messi', 'turnamen', 'memiliki', 'sepak_bola', 'piala_dunia', 'klub', 'dunia', 'qatar', 'laga', 'pelatih', 'tim', 'messi']</t>
-  </si>
-  <si>
-    <t>['pertandingan', 'langsung', 'sepakbola', 'argentina', 'timnas', 'indonesia', 'memiliki', 'sepak_bola', 'tim']</t>
-  </si>
-  <si>
-    <t>['sepakbola', 'pemain', 'indonesia', 'sepak_bola', 'klub', 'tim']</t>
-  </si>
-  <si>
-    <t>['poin', 'umpan', 'bermain', 'babak', 'gawang', 'skor', 'musim', 'gol', 'unggul', 'pertandingan', 'bola', 'sepak_pojok', 'kalah', 'kemenangan', 'menit', 'tim', 'menang']</t>
-  </si>
-  <si>
-    <t>['poin', 'negara', 'psm', 'pemain', 'juku_eja', 'timnas', 'kali', 'indonesia', 'memiliki', 'hasil', 'klub', 'liga', 'psm_makassar', 'pelatih', 'tim', 'ketiga', 'bagus']</t>
+    <t>['sepakan', 'kiper', 'babak', 'laga', 'kotak_penalti', 'menit', 'melebar', 'gawang', 'peluang', 'serangan', 'gol', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['juara', 'turnamen', 'mengaku', 'bermain']</t>
+  </si>
+  <si>
+    <t>['bola', 'pemain', 'berhasil', 'musim', 'lawan', 'psm_makassar', 'lini', 'juku_eja', 'kompetisi', 'liga', 'bernardo_tavares', 'mencetak_gol', 'pelatih', 'psm', 'tim', 'bagus', 'jepang']</t>
+  </si>
+  <si>
+    <t>['qatar', 'prancis', 'musim', 'lawan', 'nama', 'kali', 'memilih', 'tembakan', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'sepak_bola', 'juara', 'gol', 'inggris', 'tim', 'berhasil', 'menit', 'klub', 'portugal', 'timnas', 'terkait', 'laga', 'membawa', 'dunia', 'maroko', 'liga', 'mencetak_gol', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['umpan', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'hasil', 'pertandingan', 'serangan', 'gol', 'inggris', 'tim', 'peluang', 'poin', 'sepakan', 'babak', 'kalah', 'berhasil', 'melepaskan_tembakan', 'menit', 'kiper', 'laga', 'kotak_penalti', 'mencetak_gol', 'bola']</t>
+  </si>
+  <si>
+    <t>['melawan', 'memiliki', 'tavares', 'lawan', 'madura_united', 'bagus', 'skor', 'pemain', 'hasil', 'pertandingan', 'kemenangan', 'tim', 'poin', 'kalah', 'portugal', 'psm', 'laga', 'membawa', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bola']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'melawan', 'memiliki', 'lawan', 'nama', 'hasil', 'pertandingan', 'sepak_bola', 'tim', 'aksi', 'nasional', 'jakarta', 'pria', 'klub', 'terkait', 'digelar', 'laga', 'membawa', 'liga']</t>
+  </si>
+  <si>
+    <t>['pertandingan', 'digelar', 'memiliki', 'laga', 'kalah', 'berhasil', 'lawan', 'menit', 'psm_makassar', 'madura_united', 'lini', 'liga', 'serangan', 'gol', 'psm', 'juku_eja', 'pemain']</t>
+  </si>
+  <si>
+    <t>['melawan', 'tavares', 'madura_united', 'unggul', 'juku_eja', 'pemain', 'hasil', 'tim', 'poin', 'berhasil', 'lini', 'menit', 'portugal', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['wasit', 'gawang', 'sepak_pojok', 'skor', 'tendangan', 'hasil', 'kemenangan', 'serangan', 'gol', 'peluang', 'poin', 'sepakan', 'babak', 'melepaskan_tembakan', 'menit', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'dunia', 'maroko', 'kerja', 'bola']</t>
+  </si>
+  <si>
+    <t>['wasit', 'melawan', 'tavares', 'lawan', 'umpan', 'kali', 'madura_united', 'gawang', 'sepak_pojok', 'unggul', 'juku_eja', 'skor', 'pemain', 'tendangan', 'hasil', 'pertandingan', 'kemenangan', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'lapangan', 'babak', 'berhasil', 'lini', 'melepaskan_tembakan', 'menit', 'psm', 'kiper', 'laga', 'kotak_penalti', 'membawa', 'psm_makassar', 'borneo', 'mencetak_gol', 'pelatih', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['lawan', 'umpan', 'gawang', 'sepak_pojok', 'tembakan', 'skor', 'hasil', 'pertandingan', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'babak', 'menit', 'kiper', 'laga', 'kotak_penalti', 'liga', 'mencetak_gol', 'bola']</t>
+  </si>
+  <si>
+    <t>['qatar', 'prancis', 'memiliki', 'musim', 'nama', 'kali', 'indonesia', 'piala_dunia', 'sepak_bola', 'inggris', 'tim', 'terbaik', 'nasional', 'babak', 'berhasil', 'portugal', 'kompetisi', 'negara', 'kiper', 'digelar', 'dunia', 'maroko', 'bermain']</t>
+  </si>
+  <si>
+    <t>['wasit', 'prancis', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'skor', 'pemain', 'tendangan', 'piala_dunia', 'hasil', 'gol', 'inggris', 'peluang', 'menghadapi', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'digelar', 'laga', 'kotak_penalti', 'maroko', 'bola']</t>
+  </si>
+  <si>
+    <t>['sepakbola', 'sepak_bola', 'pertandingan', 'memiliki', 'dunia', 'indonesia', 'bola']</t>
+  </si>
+  <si>
+    <t>['sepakbola', 'terbaik', 'sepak_bola', 'pertandingan', 'memiliki', 'musim', 'juara', 'kali', 'klub', 'portugal', 'liga', 'mencetak_gol', 'negara', 'inggris']</t>
+  </si>
+  <si>
+    <t>['wasit', 'bernardo', 'melawan', 'lawan', 'kali', 'sepak_pojok', 'tembakan', 'unggul', 'skor', 'pemain', 'tendangan', 'piala_dunia', 'kemenangan', 'pertandingan', 'serangan', 'gol', 'peluang', 'poin', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'membawa', 'dunia', 'mencetak_gol', 'bola']</t>
+  </si>
+  <si>
+    <t>['qatar', 'melawan', 'memiliki', 'lawan', 'kali', 'gawang', 'unggul', 'bagus', 'pemain', 'piala_dunia', 'sepak_bola', 'kemenangan', 'jepang', 'latihan', 'sepakbola', 'terbaik', 'lapangan', 'poin', 'menghadapi', 'babak', 'kalah', 'laga', 'pelatih']</t>
+  </si>
+  <si>
+    <t>['qatar', 'prancis', 'memiliki', 'kali', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'sepak_bola', 'kemenangan', 'argentina', 'messi', 'juara', 'gol', 'inggris', 'tim', 'babak', 'final', 'kalah', 'menit', 'negara', 'laga', 'dunia', 'maroko', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['wasit', 'bernardo', 'musim', 'tavares', 'lawan', 'juku_eja', 'bagus', 'hasil', 'juara', 'tim', 'poin', 'menghadapi', 'aturan', 'bernardo_tavares', 'psm', 'laga', 'kotak_penalti', 'psm_makassar', 'liga', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['terbaik', 'mengaku', 'sepak_bola', 'digelar', 'pria', 'psm_makassar', 'kali', 'klub', 'indonesia', 'kompetisi', 'liga', 'pelatih', 'psm', 'juku_eja', 'bola']</t>
+  </si>
+  <si>
+    <t>['wasit', 'bernardo', 'melawan', 'lawan', 'nama', 'kali', 'indonesia', 'juku_eja', 'pemain', 'sepak_bola', 'pertandingan', 'tim', 'peluang', 'menghadapi', 'aturan', 'lini', 'menit', 'bernardo_tavares', 'psm', 'psm_makassar', 'borneo', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'nasional', 'sepak_bola', 'pertandingan', 'digelar', 'laga', 'jakarta', 'pria', 'memilih', 'klub', 'atlet', 'indonesia', 'bagus']</t>
+  </si>
+  <si>
+    <t>['bernardo', 'melawan', 'musim', 'tavares', 'madura_united', 'pemain', 'sepak_bola', 'pertandingan', 'atlet', 'tim', 'latihan', 'lapangan', 'kompetisi', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'liga', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['bernardo', 'melawan', 'madura_united', 'gawang', 'juku_eja', 'bagus', 'skor', 'pemain', 'pertandingan', 'gol', 'tim', 'peluang', 'menghadapi', 'lini', 'bernardo_tavares', 'psm', 'laga', 'membawa', 'psm_makassar', 'borneo', 'liga', 'kerja', 'mencetak_gol', 'pelatih', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['bernardo', 'melawan', 'lawan', 'bagus', 'pemain', 'sepak_bola', 'kemenangan', 'tim', 'peluang', 'poin', 'menghadapi', 'lini', 'menit', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'kerja', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'hasil', 'turnamen', 'dunia', 'indonesia', 'kompetisi', 'juara']</t>
+  </si>
+  <si>
+    <t>['wasit', 'umpan', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'bagus', 'skor', 'hasil', 'pertandingan', 'kemenangan', 'melebar', 'juara', 'gol', 'tim', 'peluang', 'poin', 'sepakan', 'babak', 'melepaskan_tembakan', 'menit', 'laga', 'kotak_penalti', 'membawa', 'kerja', 'mencetak_gol', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['kali', 'melawan', 'lapangan', 'sepak_bola']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'bola', 'bernardo', 'sepak_bola', 'pertandingan', 'digelar', 'psm_makassar', 'portugal', 'indonesia', 'kompetisi', 'liga', 'bernardo_tavares', 'pelatih', 'psm', 'tim', 'bagus']</t>
+  </si>
+  <si>
+    <t>['prancis', 'piala_dunia', 'sepak_bola', 'pertandingan', 'babak', 'pria', 'nama', 'olahraga', 'gol', 'bermain', 'tim', 'pemain']</t>
+  </si>
+  <si>
+    <t>['madura_united', 'kali', 'indonesia', 'juku_eja', 'pemain', 'pertandingan', 'serangan', 'gol', 'tim', 'babak', 'kalah', 'menit', 'psm', 'timnas', 'digelar', 'laga', 'psm_makassar', 'kerja', 'mencetak_gol']</t>
+  </si>
+  <si>
+    <t>['gawang', 'juku_eja', 'skor', 'pemain', 'tendangan', 'pertandingan', 'melebar', 'serangan', 'gol', 'tim', 'peluang', 'sepakan', 'menghadapi', 'babak', 'lini', 'melepaskan_tembakan', 'menit', 'bernardo_tavares', 'psm', 'kiper', 'laga', 'kotak_penalti', 'psm_makassar', 'liga', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['pertandingan', 'kalah', 'laga', 'musim', 'jakarta', 'berhasil', 'klub', 'indonesia', 'sang', 'juara']</t>
+  </si>
+  <si>
+    <t>['wasit', 'lawan', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'pemain', 'tendangan', 'pertandingan', 'gol', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'membawa', 'bola']</t>
+  </si>
+  <si>
+    <t>['wasit', 'lawan', 'gawang', 'sepak_pojok', 'pemain', 'pertandingan', 'serangan', 'gol', 'tim', 'peluang', 'sepakan', 'terbaik', 'lapangan', 'babak', 'menit', 'kiper', 'digelar', 'laga', 'dunia', 'kerja', 'mencetak_gol', 'bola']</t>
+  </si>
+  <si>
+    <t>['qatar', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'melebar', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'sepakan', 'lapangan', 'menghadapi', 'babak', 'berhasil', 'melepaskan_tembakan', 'menit', 'kiper', 'laga', 'kotak_penalti', 'dunia', 'kerja', 'mencetak_gol', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['qatar', 'piala_dunia', 'sepakbola', 'nasional', 'timnas', 'sepak_bola', 'pertandingan', 'memiliki', 'berhasil', 'atlet', 'dunia', 'sang', 'inggris', 'tim', 'bola', 'pemain']</t>
+  </si>
+  <si>
+    <t>['melawan', 'lawan', 'kali', 'unggul', 'bagus', 'skor', 'pemain', 'kemenangan', 'gol', 'tim', 'poin', 'menghadapi', 'kalah', 'berhasil', 'kompetisi', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['sepak_bola', 'terkait', 'memiliki', 'jakarta', 'berhasil', 'kali', 'olahraga', 'kerja']</t>
+  </si>
+  <si>
+    <t>['mengaku', 'lapangan', 'menghadapi', 'babak', 'pertandingan', 'turnamen', 'final', 'atlet', 'indonesia', 'pelatih', 'pemain']</t>
+  </si>
+  <si>
+    <t>['wasit', 'umpan', 'kali', 'gawang', 'sepak_pojok', 'skor', 'tendangan', 'pertandingan', 'serangan', 'gol', 'tim', 'aksi', 'peluang', 'terbaik', 'babak', 'menit', 'kiper', 'laga', 'kotak_penalti', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['qatar', 'memiliki', 'nama', 'pemain', 'piala_dunia', 'sepak_bola', 'pertandingan', 'turnamen', 'argentina', 'messi', 'tim', 'sepakbola', 'terbaik', 'nasional', 'final', 'klub', 'timnas', 'laga', 'membawa', 'dunia', 'pelatih', 'bermain']</t>
+  </si>
+  <si>
+    <t>['nasional', 'memiliki', 'basket', 'nama', 'kali', 'klub', 'memilih', 'indonesia', 'atlet', 'olahraga', 'lini', 'dunia', 'bagus']</t>
+  </si>
+  <si>
+    <t>['sepakbola', 'timnas', 'sepak_bola', 'pertandingan', 'memiliki', 'indonesia', 'argentina', 'tim']</t>
+  </si>
+  <si>
+    <t>['sepakbola', 'sepak_bola', 'klub', 'indonesia', 'liga', 'tim', 'pemain']</t>
+  </si>
+  <si>
+    <t>['musim', 'umpan', 'gawang', 'sepak_pojok', 'unggul', 'skor', 'hasil', 'pertandingan', 'kemenangan', 'gol', 'inggris', 'tim', 'poin', 'babak', 'kalah', 'menit', 'laga', 'liga', 'bermain', 'bola']</t>
+  </si>
+  <si>
+    <t>['memiliki', 'tavares', 'kali', 'indonesia', 'juku_eja', 'bagus', 'skor', 'pemain', 'hasil', 'kemenangan', 'gol', 'tim', 'latihan', 'poin', 'klub', 'kompetisi', 'negara', 'psm', 'timnas', 'psm_makassar', 'liga', 'pelatih']</t>
+  </si>
+  <si>
+    <t>['pertandingan', 'digelar', 'dunia', 'indonesia', 'aksi']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4239,6 +4239,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4276,11 +4284,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4585,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4631,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4657,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4683,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4709,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4735,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4761,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4787,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4813,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4839,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4865,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4891,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4917,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4943,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4969,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4995,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5021,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5047,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5073,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5099,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5125,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5151,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5159,7 +5168,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5177,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5203,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5229,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5255,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5281,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5307,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5333,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5359,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5367,7 +5376,7 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5385,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5411,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5437,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5463,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5489,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5515,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5541,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5567,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5593,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5619,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5645,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5671,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5697,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5723,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5749,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5775,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -5801,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5827,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5853,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5879,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5893,5 +5902,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>